--- a/biology/Zoologie/Cyrtodactylus_mimikanus/Cyrtodactylus_mimikanus.xlsx
+++ b/biology/Zoologie/Cyrtodactylus_mimikanus/Cyrtodactylus_mimikanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus mimikanus est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus mimikanus est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Boulenger, 1914 : An annotated list of the batrachians and reptiles collected by the British Ornithologists' Union Expedition and the Wollaston Expedition in Dutch New Guinea. Transactions of the Zoological Society of London, vol. 20, n. 5, p. 247-274  (texte intégral).</t>
         </is>
